--- a/public/files/sample_sales.xlsx
+++ b/public/files/sample_sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\wakasa\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008E902-640F-4495-849E-875913FE4D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7CAB83-2BEC-47DA-A60D-60142E3A23AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>invoice_number</t>
   </si>
@@ -43,15 +43,9 @@
     <t>order_notes</t>
   </si>
   <si>
-    <t>item_code</t>
-  </si>
-  <si>
     <t>item_quantity</t>
   </si>
   <si>
-    <t>SALE-240211111</t>
-  </si>
-  <si>
     <t>sales_counter</t>
   </si>
   <si>
@@ -133,50 +127,38 @@
     <t>Input</t>
   </si>
   <si>
-    <t>C001</t>
-  </si>
-  <si>
     <t>item_id</t>
   </si>
   <si>
-    <t>01050-41950</t>
-  </si>
-  <si>
-    <t>17720-6290</t>
-  </si>
-  <si>
-    <t>01050-50830</t>
-  </si>
-  <si>
-    <t>8-97089-591-0</t>
-  </si>
-  <si>
     <t>shelf</t>
   </si>
   <si>
     <t>ABC</t>
   </si>
   <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>sales_price</t>
-  </si>
-  <si>
     <t>B15</t>
   </si>
   <si>
     <t xml:space="preserve">Test Import Sales </t>
   </si>
   <si>
-    <t>2025-01-27 13:00:00</t>
+    <t>2025-05-25 13:00:00</t>
+  </si>
+  <si>
+    <t>S01236128</t>
+  </si>
+  <si>
+    <t>C0001</t>
+  </si>
+  <si>
+    <t>02380-80250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -207,12 +189,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -306,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -321,14 +297,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -605,12 +577,10 @@
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,74 +596,40 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="15">
+      <c r="H2" s="11">
         <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="15">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>500000</v>
       </c>
     </row>
   </sheetData>
@@ -715,130 +651,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>12</v>
+      <c r="A1" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="5" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/sample_sales.xlsx
+++ b/public/files/sample_sales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\wakasa6\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7CAB83-2BEC-47DA-A60D-60142E3A23AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240AB40-7F60-4C0F-BAC2-871EB7E9EC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>invoice_number</t>
   </si>
@@ -148,10 +148,28 @@
     <t>S01236128</t>
   </si>
   <si>
-    <t>C0001</t>
-  </si>
-  <si>
     <t>02380-80250</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>customer_address</t>
+  </si>
+  <si>
+    <t>customer Test</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>02380-80200</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>C0005</t>
   </si>
 </sst>
 </file>
@@ -564,23 +582,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,47 +608,70 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="11">
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>

--- a/public/files/sample_sales.xlsx
+++ b/public/files/sample_sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\wakasa6\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240AB40-7F60-4C0F-BAC2-871EB7E9EC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F0C7A8-64C8-443C-8599-9DF23C596FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>invoice_number</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>C0005</t>
+  </si>
+  <si>
+    <t>shipping_alias</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>alias</t>
   </si>
 </sst>
 </file>
@@ -236,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -296,11 +305,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -321,6 +339,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -593,14 +612,15 @@
     <col min="1" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="5" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,26 +633,32 @@
       <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -646,32 +672,38 @@
         <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="11">
+      <c r="L2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>46</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
